--- a/ico_project.xlsx
+++ b/ico_project.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements" sheetId="2" r:id="rId2"/>
     <sheet name="Aplicable_law" sheetId="3" r:id="rId3"/>
     <sheet name="Financial_restrictions" sheetId="4" r:id="rId4"/>
+    <sheet name="Time_features" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="240">
   <si>
     <t>Country</t>
   </si>
@@ -202,12 +203,6 @@
     <t>к необеспеченным цифровым активам относятся цифровые токены, полученные как вознаграждение за участие в поддержании консенсуса в блокчейне в порядке, установленном законодательством Республики Казахстан.</t>
   </si>
   <si>
-    <t>имущество</t>
-  </si>
-  <si>
-    <t>Министерство цифрового развития</t>
-  </si>
-  <si>
     <t>http://adilet.zan.kz/rus/docs/Z2000000347#z244 ; https://bestprofi.com/document/2416888147;jsessionid=4CBB1D2987F59379D2FD8885E254F63E?0</t>
   </si>
   <si>
@@ -235,9 +230,6 @@
     <t>нематериальное благо</t>
   </si>
   <si>
-    <t>Министерство цифровой трансформации</t>
-  </si>
-  <si>
     <t>https://w1.c1.rada.gov.ua/pls/zweb2/webproc4_1?pf3511=69110</t>
   </si>
   <si>
@@ -271,9 +263,6 @@
     <t>ценная бумага</t>
   </si>
   <si>
-    <t>Швейцарская служба по надзору за финансовыми рынками</t>
-  </si>
-  <si>
     <t>https://www.parlament.ch/en/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20190074</t>
   </si>
   <si>
@@ -295,9 +284,6 @@
     <t>запрещено</t>
   </si>
   <si>
-    <t>Народный Банк Китая</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
@@ -313,9 +299,6 @@
     <t>токены, которые  зависимости от своей структуры, могут быть определены как ценные бумаги в соовтетствии с параграфом 2 закона Эстонии о ценных бумагах</t>
   </si>
   <si>
-    <t>Эстонское Управление Финансового Надзора</t>
-  </si>
-  <si>
     <t>https://www.fi.ee/en/finantsinspektsioon/financial-innovation/virtual-currencies-and-ico/information-entities-engaging-virtual-currencies-and-icos       https://www.riigiteataja.ee/en/eli/ee/518012019004/consolide/current</t>
   </si>
   <si>
@@ -341,9 +324,6 @@
   </si>
   <si>
     <t>финансовый инструмент</t>
-  </si>
-  <si>
-    <t>Агентство Финансовых Услуг</t>
   </si>
   <si>
     <t>https://www.fsa.go.jp/common/law/fie01.pdf http://www.japaneselawtranslation.go.jp/law/detail/?id=3078&amp;vm=02&amp;re=02</t>
@@ -601,21 +581,6 @@
     <t>Applicable_law_utility_issuance</t>
   </si>
   <si>
-    <t>Applicable_law_cryptocurrency_issuance</t>
-  </si>
-  <si>
-    <t>Applicable_law_assets_issuance</t>
-  </si>
-  <si>
-    <t>Applicable_law_utility_purchase</t>
-  </si>
-  <si>
-    <t>Applicable_law_cryptocurrency_purchase</t>
-  </si>
-  <si>
-    <t>Applicable_law_assets_purchase</t>
-  </si>
-  <si>
     <t>Possibility_of_an_agreement_utility</t>
   </si>
   <si>
@@ -637,9 +602,6 @@
     <t>место нахождения поставщика услуг</t>
   </si>
   <si>
-    <t>место нахождения кредитора</t>
-  </si>
-  <si>
     <t>Restrictions_on_utility_investment_individuals</t>
   </si>
   <si>
@@ -692,6 +654,117 @@
   </si>
   <si>
     <t>Белоруссия</t>
+  </si>
+  <si>
+    <t>definition_utility</t>
+  </si>
+  <si>
+    <t>definition_cryptocurrency</t>
+  </si>
+  <si>
+    <t>definition_assets</t>
+  </si>
+  <si>
+    <t>status_utility</t>
+  </si>
+  <si>
+    <t>status_cryptocurrency</t>
+  </si>
+  <si>
+    <t>status_assets</t>
+  </si>
+  <si>
+    <t>special_law_crypto</t>
+  </si>
+  <si>
+    <t>free_payment</t>
+  </si>
+  <si>
+    <t>local_cryptoexchange_reg</t>
+  </si>
+  <si>
+    <t>special_law_utility</t>
+  </si>
+  <si>
+    <t>special_law_asset</t>
+  </si>
+  <si>
+    <t>cryptoexchange</t>
+  </si>
+  <si>
+    <t>asset_exchange</t>
+  </si>
+  <si>
+    <t>ico_asset</t>
+  </si>
+  <si>
+    <t>ico_utility</t>
+  </si>
+  <si>
+    <t>appl_law_assets_exchange</t>
+  </si>
+  <si>
+    <t>appl_law_ico_assets</t>
+  </si>
+  <si>
+    <t>appl_law_cryptocurrency_exchange</t>
+  </si>
+  <si>
+    <t>AML</t>
+  </si>
+  <si>
+    <t>appl_law_ico_utility</t>
+  </si>
+  <si>
+    <t>local_asset_exchange</t>
+  </si>
+  <si>
+    <t>extraterritorial_appl_exchange</t>
+  </si>
+  <si>
+    <t>extraterritorial_appl_assets_issue</t>
+  </si>
+  <si>
+    <t>Applicable_law_exchange</t>
+  </si>
+  <si>
+    <t>имущественное право</t>
+  </si>
+  <si>
+    <t>applicable_law_assets_turnover</t>
+  </si>
+  <si>
+    <t>Applicable_law_cryptocurrency_turnover</t>
+  </si>
+  <si>
+    <t>extraterritorial_appl_utility_turnover</t>
+  </si>
+  <si>
+    <t>Согласно закону о немецких инвестиционных продуктах (VermAnlG), ограничения на инвестиции индивидуального инвестора составляет 1000 евро, а при раскрытии информации о своих доходах - двойной среднемесячный доход, но не более 10 000 евро; ограничение составляет 10 000 евро при условии, что инвестор информацию, подтверждающую наличие актива в размере не менее 100 000 евро;  Соблюдать законодательство о противодействии отмыванию денежных средств</t>
+  </si>
+  <si>
+    <t>Франция</t>
+  </si>
+  <si>
+    <t>любой нематериальный актив, представляющий в цифровой форме одно или несколько прав, которые могут быть выпущены, зарегистрированы, сохранены или переданы с помощью технологии распреелённого хранения данных, позволяющей прямо или косвенно идентифицировать владельца такого актива</t>
+  </si>
+  <si>
+    <t>Эмитенты утилити токенов могут получить лицензию во Французском Управлении Финансовым рынками (AMF). Лицензия даёт право компании открыть банковский счёт. Получение лицензии означает соблюдение всех требований безопасности и противодействия отмыванию денежных средств. Таким ICO компании попадают в так называемый "белый лист" ICO компаний Франции, который публикуется регулятором.</t>
+  </si>
+  <si>
+    <t>цифроой актив</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которое не выдается или не гарантируется Центральным банком или государственным органом, которое не обязательно прикреплено к валюте, находящейся в законном обороте, но которое принимается физическими или юридическими лицами в качестве средства обмена и которое может быть передано, сохранено или обменено в электронном виде.</t>
+  </si>
+  <si>
+    <t>нелистенговые ценные бумаги ( unlisted financial securities )</t>
+  </si>
+  <si>
+    <t>токенезированные ценные бумги</t>
+  </si>
+  <si>
+    <t>Министерство</t>
   </si>
 </sst>
 </file>
@@ -750,7 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +844,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1121,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1313,7 @@
     </row>
     <row r="2" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1316,7 +1390,7 @@
     </row>
     <row r="3" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -1393,7 +1467,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -1423,22 +1497,22 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="O4" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>27</v>
@@ -1462,15 +1536,15 @@
         <v>28</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="Z4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1488,34 +1562,34 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>63</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>27</v>
@@ -1539,21 +1613,21 @@
         <v>28</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="Z5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
@@ -1565,34 +1639,34 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
         <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>27</v>
@@ -1616,98 +1690,98 @@
         <v>27</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1716,34 +1790,34 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>27</v>
@@ -1767,15 +1841,15 @@
         <v>27</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Z8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1793,34 +1867,34 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
         <v>96</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" t="s">
-        <v>102</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>27</v>
@@ -1847,21 +1921,21 @@
         <v>103</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1870,34 +1944,34 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
         <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>27</v>
@@ -1921,24 +1995,24 @@
         <v>27</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Z10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -1947,34 +2021,34 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>27</v>
@@ -1998,10 +2072,69 @@
         <v>27</v>
       </c>
       <c r="X11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Z11" s="7" t="s">
-        <v>117</v>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2015,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,111 +2176,111 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>28</v>
@@ -2162,13 +2295,13 @@
         <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -2177,13 +2310,13 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
@@ -2195,16 +2328,16 @@
         <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>28</v>
@@ -2221,7 +2354,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -2236,13 +2369,13 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -2275,16 +2408,16 @@
     </row>
     <row r="5" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2293,13 +2426,13 @@
         <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
@@ -2311,16 +2444,16 @@
         <v>27</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -2332,16 +2465,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -2350,13 +2483,13 @@
         <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -2371,13 +2504,13 @@
         <v>28</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -2389,78 +2522,78 @@
     </row>
     <row r="7" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -2490,13 +2623,13 @@
         <v>28</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -2508,16 +2641,16 @@
     </row>
     <row r="9" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -2547,13 +2680,13 @@
         <v>28</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>27</v>
@@ -2565,16 +2698,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -2601,16 +2734,16 @@
         <v>27</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>28</v>
@@ -2621,16 +2754,16 @@
     </row>
     <row r="11" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -2660,18 +2793,53 @@
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2683,10 +2851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,402 +2862,433 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
-    <col min="12" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="4" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.5703125" customWidth="1"/>
+    <col min="13" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>194</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3124,30 +3323,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -3159,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>28</v>
@@ -3213,7 +3412,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -3236,7 +3435,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -3259,30 +3458,30 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -3305,7 +3504,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -3328,7 +3527,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -3351,7 +3550,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -3376,4 +3575,785 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="31.42578125" customWidth="1"/>
+    <col min="20" max="20" width="34.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="E2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="F2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="G2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="H2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="I2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="J2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="K2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="L2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="O2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="P2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="R2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="S2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="8">
+        <v>44197</v>
+      </c>
+      <c r="V2" s="8">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="E3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="G3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="H3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="I3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="J3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="K3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="L3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="M3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="N3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="O3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="P3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>43090</v>
+      </c>
+      <c r="R3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="S3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="T3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="U3" s="8">
+        <v>43160</v>
+      </c>
+      <c r="V3" s="8">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="G4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="J4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="M4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="8">
+        <v>44007</v>
+      </c>
+      <c r="U4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="8">
+        <v>44007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="D5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="H5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="I5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="J5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="K5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="L5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="M5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="N5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="O5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="P5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="S5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="T5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="U5" s="8">
+        <v>44134</v>
+      </c>
+      <c r="V5" s="8">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43546</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43546</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43546</v>
+      </c>
+      <c r="E6" s="8">
+        <v>43006</v>
+      </c>
+      <c r="F6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="G6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="H6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="I6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="J6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="K6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="L6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="M6" s="8">
+        <v>43006</v>
+      </c>
+      <c r="N6" s="8">
+        <v>43006</v>
+      </c>
+      <c r="O6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="P6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="R6" s="8">
+        <v>43006</v>
+      </c>
+      <c r="S6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="T6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="U6" s="8">
+        <v>43147</v>
+      </c>
+      <c r="V6" s="8">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="G7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="H7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="I7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="J7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="K7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="L7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="M7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="N7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="O7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="P7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="R7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="S7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="T7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="U7" s="8">
+        <v>42982</v>
+      </c>
+      <c r="V7" s="8">
+        <v>42982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="F8" s="8">
+        <v>44035</v>
+      </c>
+      <c r="G8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="H8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="I8" s="8">
+        <v>44035</v>
+      </c>
+      <c r="J8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="K8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="L8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="M8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="N8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="O8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="P8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>44035</v>
+      </c>
+      <c r="R8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="S8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="T8" s="8">
+        <v>43066</v>
+      </c>
+      <c r="U8" s="8">
+        <v>43353</v>
+      </c>
+      <c r="V8" s="8">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="G9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="H9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="I9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="J9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="K9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="L9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="M9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="N9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="O9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="P9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="8">
+        <v>43405</v>
+      </c>
+      <c r="S9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="T9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="U9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="V9" s="8">
+        <v>42826</v>
+      </c>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43840</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42990</v>
+      </c>
+      <c r="F10" s="8">
+        <v>43424</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43424</v>
+      </c>
+      <c r="H10" s="8">
+        <v>43424</v>
+      </c>
+      <c r="I10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="J10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="K10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="L10" s="8">
+        <v>42990</v>
+      </c>
+      <c r="M10" s="8">
+        <v>42990</v>
+      </c>
+      <c r="N10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="O10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="P10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="R10" s="8">
+        <v>42990</v>
+      </c>
+      <c r="S10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="T10" s="8">
+        <v>42990</v>
+      </c>
+      <c r="U10" s="8">
+        <v>43488</v>
+      </c>
+      <c r="V10" s="8">
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43784</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="F11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="G11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="H11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="I11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="J11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="K11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="L11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="M11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="N11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="O11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="P11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="R11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="S11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="T11" s="8">
+        <v>41687</v>
+      </c>
+      <c r="U11" s="8">
+        <v>43187</v>
+      </c>
+      <c r="V11" s="8">
+        <v>43187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ico_project.xlsx
+++ b/ico_project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="239">
   <si>
     <t>Country</t>
   </si>
@@ -117,12 +117,6 @@
     <t>нет</t>
   </si>
   <si>
-    <t xml:space="preserve">утилитарные цифровые права </t>
-  </si>
-  <si>
-    <t>цифровые права, включающие право требовать передачи вещи; право требовать передачи исключительных прав на результаты интеллектуальной деятельности; право требовать выполнения работ/оказания услуг.</t>
-  </si>
-  <si>
     <t>цифровая валюта</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>средство платежа/инвестиции/имущество</t>
-  </si>
-  <si>
-    <t>Цифровое право</t>
   </si>
   <si>
     <t xml:space="preserve">денежные средства </t>
@@ -590,9 +581,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>native</t>
-  </si>
-  <si>
     <t>закон наиболее тесной связи</t>
   </si>
   <si>
@@ -765,6 +753,15 @@
   </si>
   <si>
     <t>Министерство</t>
+  </si>
+  <si>
+    <t>цифровое свидетельство</t>
+  </si>
+  <si>
+    <t>неэмиссионная бездокументарная ценная бумага, не имеющая номинальной стоимости, удостоверяющая принадлежность ее владельцу утилитарного цифрового права, распоряжаться которым имеет возможность депозитарий, и закрепляющая право ее владельца требовать от этого депозитария оказания услуг по осуществлению утилитарного цифрового права и (или) распоряжения им определенным образом.</t>
+  </si>
+  <si>
+    <t>национальное право</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1195,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,9 +1308,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="270" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1331,66 +1328,66 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -1408,66 +1405,66 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -1485,66 +1482,66 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>223</v>
+      </c>
+      <c r="O4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z4" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>227</v>
-      </c>
-      <c r="O4" t="s">
-        <v>227</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1562,72 +1559,72 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
         <v>61</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z5" t="s">
         <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
@@ -1639,149 +1636,149 @@
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z6" t="s">
         <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="O7" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
-      </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1790,66 +1787,66 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z8" t="s">
         <v>85</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1866,76 +1863,76 @@
       <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>91</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -1944,75 +1941,75 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
         <v>98</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="O10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="Z10" t="s">
         <v>101</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -2021,66 +2018,66 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="I11" t="s">
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -2089,7 +2086,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -2098,22 +2095,22 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M12" t="s">
         <v>27</v>
@@ -2125,16 +2122,16 @@
         <v>27</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2150,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,168 +2173,168 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>28</v>
@@ -2351,10 +2348,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -2369,13 +2366,13 @@
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -2408,52 +2405,52 @@
     </row>
     <row r="5" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -2465,52 +2462,52 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -2522,114 +2519,114 @@
     </row>
     <row r="7" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -2641,52 +2638,52 @@
     </row>
     <row r="9" spans="1:20" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>27</v>
@@ -2698,52 +2695,52 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>28</v>
@@ -2754,16 +2751,16 @@
     </row>
     <row r="11" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -2793,13 +2790,13 @@
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>28</v>
@@ -2810,7 +2807,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -2837,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>27</v>
@@ -2854,7 +2851,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,63 +2873,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -2941,7 +2938,7 @@
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2952,25 +2949,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -2979,7 +2976,7 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -2990,25 +2987,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -3017,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -3028,25 +3025,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -3055,7 +3052,7 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -3066,25 +3063,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -3093,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -3104,25 +3101,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -3131,10 +3128,10 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
@@ -3142,25 +3139,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -3169,7 +3166,7 @@
         <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -3180,25 +3177,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -3207,10 +3204,10 @@
         <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
         <v>28</v>
@@ -3218,25 +3215,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -3245,7 +3242,7 @@
         <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -3256,25 +3253,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -3283,7 +3280,7 @@
         <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -3323,30 +3320,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>186</v>
-      </c>
-      <c r="D1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -3358,7 +3355,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>28</v>
@@ -3366,7 +3363,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -3412,7 +3409,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -3435,7 +3432,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -3458,30 +3455,30 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -3504,7 +3501,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -3527,7 +3524,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -3550,7 +3547,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -3582,7 +3579,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,75 +3609,75 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
         <v>209</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>211</v>
+      </c>
+      <c r="P1" t="s">
         <v>212</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q1" t="s">
         <v>213</v>
       </c>
-      <c r="E1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" t="s">
         <v>215</v>
       </c>
-      <c r="P1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" t="s">
-        <v>221</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>218</v>
-      </c>
-      <c r="T1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U1" t="s">
-        <v>219</v>
-      </c>
-      <c r="V1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8">
         <v>43831</v>
@@ -3713,7 +3710,7 @@
         <v>44197</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N2" s="8">
         <v>44197</v>
@@ -3734,7 +3731,7 @@
         <v>44197</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U2" s="8">
         <v>44197</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="8">
         <v>43090</v>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B4" s="8">
         <v>44007</v>
@@ -3822,7 +3819,7 @@
         <v>44007</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="8">
         <v>44007</v>
@@ -3834,7 +3831,7 @@
         <v>44007</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" s="8">
         <v>44007</v>
@@ -3843,7 +3840,7 @@
         <v>44007</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L4" s="8">
         <v>44007</v>
@@ -3852,28 +3849,28 @@
         <v>44007</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="8">
         <v>44007</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T4" s="8">
         <v>44007</v>
       </c>
       <c r="U4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V4" s="8">
         <v>44007</v>
@@ -3881,7 +3878,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" s="8">
         <v>44134</v>
@@ -3946,7 +3943,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B6" s="8">
         <v>43546</v>
@@ -4014,16 +4011,16 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="8">
         <v>42982</v>
@@ -4082,16 +4079,16 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B8" s="8">
         <v>43066</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="8">
         <v>43066</v>
@@ -4150,13 +4147,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B9" s="8">
         <v>42826</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D9" s="8">
         <v>43952</v>
@@ -4197,8 +4194,8 @@
       <c r="P9" s="8">
         <v>43952</v>
       </c>
-      <c r="Q9" t="s">
-        <v>80</v>
+      <c r="Q9" s="8">
+        <v>42826</v>
       </c>
       <c r="R9" s="8">
         <v>43405</v>
@@ -4219,16 +4216,16 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B10" s="8">
         <v>43840</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="8">
         <v>42990</v>
@@ -4287,16 +4284,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B11" s="8">
         <v>43784</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="8">
         <v>41687</v>
@@ -4338,7 +4335,7 @@
         <v>43187</v>
       </c>
       <c r="R11" s="8">
-        <v>41687</v>
+        <v>43831</v>
       </c>
       <c r="S11" s="8">
         <v>43187</v>

--- a/ico_project.xlsx
+++ b/ico_project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="270">
   <si>
     <t>Country</t>
   </si>
@@ -323,9 +323,6 @@
     <t>токены, которые можно использовать для доступа к определенному продукту или услуге, обычно предоставляемым с помощью платформы DLT</t>
   </si>
   <si>
-    <t>биржеыве токены</t>
-  </si>
-  <si>
     <t xml:space="preserve">токены, которые часто называют криптовалютами, они используют технологию распределенного хранения данных и не выпускаются и не поддерживаются Центральным банком или другим центральным органом. Они не предоставляют типы права или доступ к услугам и товарам, которые харктерны для утилити токенов  и токенов ценных бумаг, но используются в качестве средства обмена или для инвестиций. </t>
   </si>
   <si>
@@ -351,9 +348,6 @@
   </si>
   <si>
     <t>цифровые представления ценности, которая не была выпущена или гарантирована каким-либо Центральным банком или государственным органом и которая не имеет правового статуса валюты или денег, но которая принимается в качестве средства обмена или платежа или для инвестиционных целей любым физическим или юридическим лицом на основе соглашения или в соответствии с рыночной практикой и которая может передаваться, храниться и продаваться в электронном виде.</t>
-  </si>
-  <si>
-    <t>средство платежа (units of account)</t>
   </si>
   <si>
     <t>https://www.bafin.de/EN/Aufsicht/BankenFinanzdienstleister/Zulassung/Kryptoverwahrgeschaeft/kryptoverwahrgeschaeft_node_en.html</t>
@@ -740,9 +734,6 @@
     <t>Эмитенты утилити токенов могут получить лицензию во Французском Управлении Финансовым рынками (AMF). Лицензия даёт право компании открыть банковский счёт. Получение лицензии означает соблюдение всех требований безопасности и противодействия отмыванию денежных средств. Таким ICO компании попадают в так называемый "белый лист" ICO компаний Франции, который публикуется регулятором.</t>
   </si>
   <si>
-    <t>цифроой актив</t>
-  </si>
-  <si>
     <t>цифровое представление стоимости, которое не выдается или не гарантируется Центральным банком или государственным органом, которое не обязательно прикреплено к валюте, находящейся в законном обороте, но которое принимается физическими или юридическими лицами в качестве средства обмена и которое может быть передано, сохранено или обменено в электронном виде.</t>
   </si>
   <si>
@@ -762,6 +753,109 @@
   </si>
   <si>
     <t>национальное право</t>
+  </si>
+  <si>
+    <t>биржевые токены</t>
+  </si>
+  <si>
+    <t>цифровой актив</t>
+  </si>
+  <si>
+    <t>Австрия</t>
+  </si>
+  <si>
+    <t>Токены ценные бумаги предоставляют денежное требование эмитенту либо на корпоративной основе (например, дивиденды), либо на договорной основе (например, погашение основной суммы долга/процентов по кредиту). Таким образом, они очень похожи на традиционные долговые обязательства или акции. Форма оплаты не имеет значения (фиатная валюта или криптовалюта).</t>
+  </si>
+  <si>
+    <t>Используются в связи с  потреблением определенных продуктов или услуг. Если токен может быть использован только для очень ограниченного спектра продуктов или услуг (например, на одной платформе) и если он не предоставляет никаких других прав, он выглядит очень похожим на ваучер и не подлежит никакому регулирующему режиму. Однако, если он также может быть использован для оплаты, необходимо учитывать регулирующие последствия, установленные для платежных токенов.</t>
+  </si>
+  <si>
+    <t>нематериальное имущество</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>инвестиционный токен</t>
+  </si>
+  <si>
+    <t>токены, предоставляющие права на получение дохода</t>
+  </si>
+  <si>
+    <t>средство хранения, расчета и обмена, учитывая его конвертируемость в другие токены, криптовалюты или фиатные деньги</t>
+  </si>
+  <si>
+    <t>токен, который предоставляет к продукту или услуге</t>
+  </si>
+  <si>
+    <t>Италия</t>
+  </si>
+  <si>
+    <t>платежные токены в первую очередь выполняют платежную функцию для большей группы лиц. Для выпуска платежных токенов может потребоваться банковская лицензия (выпуск платежных средств), лицензия в соответствии с Законом об электронных деньгах или лицензия в соответствии с Законом о платежных услугах.</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, не выпущенное центральным банком или государственным органом, не обязательно связанное с законным платежным средством, используемое в качестве средства обмена для покупки товаров и услуг и передаваемое, хранящееся в электронном виде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cоздан единый реестр конечных бенефициарных собственников предприятий и трастов. В частности, специальный раздел Реестра предприятий является инструментом сбора и хранения информации о бенефициарных владельцах юридических лиц. Директора всех юридических лиц обязаны предоставлять в реестр соответствующую информацию и данные. В случае бездействия или необоснованного отказа акционера предоставить необходимую информацию его право голоса, связанное с пакетами акций, принадлежащими бенефициарному владельцу, будут заморожены. </t>
+  </si>
+  <si>
+    <t>Платформа обмена криптоактивами</t>
+  </si>
+  <si>
+    <t>токены, которые предоставляют права и обязательства, схожие с  акциями или долговыми инструментами (облигаций и других видов секьюритизированных долговых обязательств, производные финансовые контракты, паи в коллективных инвестиционных фондах и т.д.)</t>
+  </si>
+  <si>
+    <t>Зарегистрировать выпуск токенов активов в Службе финансового надзора; опубликовать проспект эмиссии; 
+идентифицировать покупателей токенов;</t>
+  </si>
+  <si>
+    <t>Польша</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которая не является: а) законным платежным средством, выпущенным НБП (Национальным банком Польши), иностранными центральными банками или другими органами государственного управления; б) международной клиринговой единицей, учрежденной международной организацией и принятой отдельными странами, входящими в такую организацию или сотрудничающими с ней; в) электронными деньгами по смыслу Закона от 19 августа 2011 года о платежных услугах; г) финансовым инструментом по смыслу Закона от 29 июля 2005 года о торговле финансовыми инструментами.; д) векселем или чеком. Конвертируется в коммерческих сделках в законные платежные средства и принимается в качестве средства обмена, а также может храниться или передаваться в электронном виде или может быть объектом электронной торговли</t>
+  </si>
+  <si>
+    <t>Специальных разъяснений о порядке опредлеения токена как финансового инструмента не даётся. Указывается, что токен, являющийся финансовым инструментом по смыслу польского законодательства и законодательства Европйского союза будет являться токеном ценной бумагой.</t>
+  </si>
+  <si>
+    <t>Швеция</t>
+  </si>
+  <si>
+    <t>Испания</t>
+  </si>
+  <si>
+    <t>не указано</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которое не выпущено или не гарантировано центральным банком или государственным органом, не обязательно привязано к законно установленной валюте и не обладает правовым статусом валюты или денег, но принимается физическими или юридическими лицами в качестве средства обмена и может передаваться, храниться и продаваться в электронном виде.</t>
+  </si>
+  <si>
+    <t>валютный токен</t>
+  </si>
+  <si>
+    <t>Утилити токены функционируют в основном либо как платежное средство в конкретной обстановке без использования в качестве общего платежного средства (например, оплата услуг или товаров от конкретного поставщика), либо как предоставление доступа к услуге или продукту через владение такими токенами.</t>
+  </si>
+  <si>
+    <t>не определено</t>
+  </si>
+  <si>
+    <t>токены, которые дают право на доступ к услуге или на получение продукта, без  упоминания  о повышении курса и ожиданиях ликвидности или о возможности торговли ими на конкретных рынках</t>
+  </si>
+  <si>
+    <t>токены, которые дают права или ожидание доли в потенциальном увеличении стоимости или прибыльности бизнеса или проектов или они представляют собой или присваивают права, эквивалентные или аналогичные правам акций, облигаций или других финансовых инструментов, регулируемых испанским законодательством о ценных бумагах</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которое не выпускается и не гарантируется центральным банком или государственным органом, не обязательно привязано к законно установленной валюте и не обладает правовым статусом валюты или денег, но принимается физическими или юридическими лицами в качестве средства обмена и может передаваться, храниться и продаваться в электронном виде.</t>
+  </si>
+  <si>
+    <t>Инвестиционные токены-это токены, основной целью которых является инвестирование, и обычно они дают финансовые права, а в некоторых случаях и права участия, аналогичные акциям компании</t>
+  </si>
+  <si>
+    <t>Норвегия</t>
+  </si>
+  <si>
+    <t>Португалия</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1404,7 @@
     </row>
     <row r="2" spans="1:26" ht="270" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -1328,10 +1422,10 @@
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1352,10 +1446,10 @@
         <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>27</v>
@@ -1387,7 +1481,7 @@
     </row>
     <row r="3" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -1464,7 +1558,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -1503,10 +1597,10 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P4" t="s">
         <v>28</v>
@@ -1533,7 +1627,7 @@
         <v>28</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z4" t="s">
         <v>53</v>
@@ -1541,7 +1635,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1610,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Z5" t="s">
         <v>62</v>
@@ -1618,7 +1712,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>64</v>
@@ -1660,7 +1754,7 @@
         <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="P6" t="s">
         <v>72</v>
@@ -1687,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z6" t="s">
         <v>73</v>
@@ -1695,7 +1789,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>64</v>
@@ -1769,7 +1863,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>64</v>
@@ -1811,7 +1905,7 @@
         <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="P8" t="s">
         <v>72</v>
@@ -1838,7 +1932,7 @@
         <v>27</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z8" t="s">
         <v>85</v>
@@ -1846,7 +1940,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1915,7 +2009,7 @@
         <v>27</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>94</v>
@@ -1923,7 +2017,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>64</v>
@@ -1947,25 +2041,25 @@
         <v>95</v>
       </c>
       <c r="I10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
         <v>98</v>
       </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>99</v>
-      </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="P10" t="s">
         <v>93</v>
@@ -1992,15 +2086,15 @@
         <v>27</v>
       </c>
       <c r="X10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" t="s">
         <v>100</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>64</v>
@@ -2021,28 +2115,28 @@
         <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
         <v>103</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="M11" t="s">
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="P11" t="s">
         <v>93</v>
@@ -2069,15 +2163,15 @@
         <v>27</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
@@ -2095,28 +2189,28 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="M12" t="s">
         <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>27</v>
@@ -2131,7 +2225,461 @@
         <v>27</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" t="s">
+        <v>241</v>
+      </c>
+      <c r="O13" t="s">
+        <v>259</v>
+      </c>
+      <c r="P13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>259</v>
+      </c>
+      <c r="P15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>259</v>
+      </c>
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18" t="s">
+        <v>259</v>
+      </c>
+      <c r="P18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2139,16 +2687,16 @@
     <hyperlink ref="Z11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,111 +2721,111 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>28</v>
@@ -2292,49 +2840,49 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>28</v>
@@ -2351,7 +2899,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -2408,49 +2956,49 @@
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -2465,49 +3013,49 @@
         <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -2522,61 +3070,61 @@
         <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2584,49 +3132,49 @@
         <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="Q8" t="s">
         <v>28</v>
@@ -2644,46 +3192,46 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>27</v>
@@ -2695,52 +3243,52 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>28</v>
@@ -2751,16 +3299,16 @@
     </row>
     <row r="11" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -2790,13 +3338,13 @@
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>28</v>
@@ -2807,36 +3355,375 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2848,10 +3735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,63 +3760,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>175</v>
-      </c>
-      <c r="L1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -2938,7 +3825,7 @@
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -2949,25 +3836,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -2976,7 +3863,7 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -2987,22 +3874,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
         <v>77</v>
@@ -3014,7 +3901,7 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -3025,25 +3912,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -3052,7 +3939,7 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -3063,25 +3950,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -3090,7 +3977,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -3101,25 +3988,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
         <v>27</v>
@@ -3128,7 +4015,7 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
@@ -3139,25 +4026,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -3166,7 +4053,7 @@
         <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
         <v>27</v>
@@ -3177,25 +4064,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -3204,7 +4091,7 @@
         <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
         <v>28</v>
@@ -3215,25 +4102,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -3242,7 +4129,7 @@
         <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -3253,39 +4140,272 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D11" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3297,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,30 +4440,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -3355,7 +4475,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>28</v>
@@ -3524,7 +4644,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -3547,7 +4667,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -3566,6 +4686,16 @@
       </c>
       <c r="G11" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3576,10 +4706,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,72 +4739,72 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
         <v>209</v>
       </c>
-      <c r="E1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>210</v>
       </c>
-      <c r="M1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>211</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S1" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" t="s">
         <v>213</v>
       </c>
-      <c r="R1" t="s">
-        <v>217</v>
-      </c>
-      <c r="S1" t="s">
-        <v>214</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>216</v>
-      </c>
-      <c r="U1" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -3742,7 +4872,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="8">
         <v>43090</v>
@@ -3810,7 +4940,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="8">
         <v>44007</v>
@@ -3878,7 +5008,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="8">
         <v>44134</v>
@@ -3943,7 +5073,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="8">
         <v>43546</v>
@@ -4011,7 +5141,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -4079,7 +5209,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="8">
         <v>43066</v>
@@ -4147,7 +5277,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="8">
         <v>42826</v>
@@ -4216,7 +5346,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="8">
         <v>43840</v>
@@ -4284,7 +5414,7 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="8">
         <v>43784</v>
@@ -4348,6 +5478,16 @@
       </c>
       <c r="V11" s="8">
         <v>43187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/ico_project.xlsx
+++ b/ico_project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="300">
   <si>
     <t>Country</t>
   </si>
@@ -825,9 +825,6 @@
     <t>Испания</t>
   </si>
   <si>
-    <t>не указано</t>
-  </si>
-  <si>
     <t>цифровое представление стоимости, которое не выпущено или не гарантировано центральным банком или государственным органом, не обязательно привязано к законно установленной валюте и не обладает правовым статусом валюты или денег, но принимается физическими или юридическими лицами в качестве средства обмена и может передаваться, храниться и продаваться в электронном виде.</t>
   </si>
   <si>
@@ -856,6 +853,99 @@
   </si>
   <si>
     <t>Португалия</t>
+  </si>
+  <si>
+    <t>11 октября 2019 года Министерство финансов внедрило "подходящие и надлежащие" требования к поставщикам услуг обмена между виртуальными валютами и фиатными валютами, а также CWPS кошельков, внеся поправки в Положение о борьбе с отмыванием денег от 2018 года. Эти требования, как утверждается, соответствуют требованиям, изложенным в Директиве (ЕС) 2018/843 (внесение поправок в Четвертую Директиву по борьбе с отмыванием денег).</t>
+  </si>
+  <si>
+    <t>В Норвегии нет никаких специальных законов или правил, применимых к эмитентам или инвесторам виртуальных валют. Выпуск или инвестирование в виртуальные валюты обычно считается легальной деятельностью, но они не требуют какой-либо лицензии в соответствии с законодательством о финансовом регулировании.</t>
+  </si>
+  <si>
+    <t>актив</t>
+  </si>
+  <si>
+    <t>Комиссия по ценным бумагам и биржам</t>
+  </si>
+  <si>
+    <t>токены, кототорые предоставляют права экономического характера и соответтсвуют характеристикам, свойственным для ценных бумаг согласно законодательству Португалии</t>
+  </si>
+  <si>
+    <t>Дания</t>
+  </si>
+  <si>
+    <t>Нидерланды</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которое не выпущено или не гарантировано центральным банком или государственным органом, не обязательно привязано к законно установленной валюте и не обладает правовым статусом валюты или денег, но принимается физическими или юридическими лицами в качестве средства обмена и может передаваться, храниться и продаваться в электронном виде</t>
+  </si>
+  <si>
+    <t>транзакционные крипто</t>
+  </si>
+  <si>
+    <t>утилити крипто</t>
+  </si>
+  <si>
+    <t>право на использование услуг или доступ к конкретному приложению или услуге, предлагаемому платформой поставщика или через нее</t>
+  </si>
+  <si>
+    <t>инвестиционные крипто</t>
+  </si>
+  <si>
+    <t>токены, которые используются в качестве альтернативы или дополнения к существующим финансовым инструментам</t>
+  </si>
+  <si>
+    <t>криптовалюты как средство для общих транзакций или переводов стоимости (что не означает, что они являются альтернативой существующим фиатным деньгам, таким как евро или доллары). Пользователи могут совершать глобальные одноранговые транзакции без участия третьей стороны (например, банка).</t>
+  </si>
+  <si>
+    <t>Мальта</t>
+  </si>
+  <si>
+    <t>виртуальный финансовый актив</t>
+  </si>
+  <si>
+    <t>означает любую форму записи цифрового носителя, которая используется в качестве цифрового носителя обмена, расчетной единицы или хранилища стоимости и которая не является: (а) электронными деньгами;(б) финансовым инструментом; или (в) виртуальным токеном.</t>
+  </si>
+  <si>
+    <t>виртуальный токен</t>
+  </si>
+  <si>
+    <t>означает форму записи на цифровом носителе, полезность, ценность или применение которой ограничивается исключительно потреблением товаров или услуг либо исключительно в рамках платформы DLT, на которой она была выпущена, либо в отношении которой она была выпущена, либо в рамках ограниченной сети платформ DLT</t>
+  </si>
+  <si>
+    <t>средство платежа/накопления</t>
+  </si>
+  <si>
+    <t>право требования</t>
+  </si>
+  <si>
+    <t>DLT платформа</t>
+  </si>
+  <si>
+    <t>Люксембург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белиз </t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которое не выпущено или не гарантировано центральным банком или государственным органом, не обязательно привязано к законно установленной валюте и не обладает правовым статусом валюты или денег, но принимается лицами в качестве средства обмена и может передаваться, храниться и торговаться в цифровом виде.</t>
+  </si>
+  <si>
+    <t>виртуальный актив</t>
+  </si>
+  <si>
+    <t>Провайдер услуг с виртуальными активами</t>
+  </si>
+  <si>
+    <t>Криптобиржи являются платёжными институтами и должны соблюдать закон Люксембурга о платёжных услугах. Криптобиржи, оказывающие услуги по обмену криптоактивов с января 2020 г. обязаны соблюдать Директиву ЕС о противодействии отмыванию денежных средств и финансированию терроризма. Таким образом, криптобиржи, криптообменники обязаны проводить процедуру идентификации своих клиентов и проходить регистрацию в Службе Финансового надзора Великобритании.</t>
+  </si>
+  <si>
+    <t>Утилити токены относятся к "виртуальным активам". В свою очередь, выпуск и обмен виртуальных активов подлежит регистрации.</t>
+  </si>
+  <si>
+    <t>E-money_law</t>
+  </si>
+  <si>
+    <t>Белиз</t>
   </si>
 </sst>
 </file>
@@ -1286,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,15 +1404,15 @@
     <col min="21" max="21" width="43.28515625" customWidth="1"/>
     <col min="22" max="22" width="48.42578125" customWidth="1"/>
     <col min="23" max="23" width="51" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" customWidth="1"/>
-    <col min="29" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="24" max="25" width="25.28515625" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1"/>
+    <col min="27" max="27" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" customWidth="1"/>
+    <col min="30" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1396,13 +1486,16 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="270" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -1475,11 +1568,14 @@
       <c r="X2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
@@ -1552,11 +1648,14 @@
       <c r="X3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -1629,11 +1728,14 @@
       <c r="X4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -1706,11 +1808,14 @@
       <c r="X5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -1754,7 +1859,7 @@
         <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P6" t="s">
         <v>72</v>
@@ -1783,11 +1888,14 @@
       <c r="X6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -1840,10 +1948,10 @@
         <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="S7" t="s">
+        <v>79</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>77</v>
@@ -1860,8 +1968,11 @@
       <c r="X7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -1905,7 +2016,7 @@
         <v>71</v>
       </c>
       <c r="O8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P8" t="s">
         <v>72</v>
@@ -1934,11 +2045,14 @@
       <c r="X8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>192</v>
       </c>
@@ -2011,11 +2125,14 @@
       <c r="X9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>189</v>
       </c>
@@ -2059,7 +2176,7 @@
         <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P10" t="s">
         <v>93</v>
@@ -2088,11 +2205,14 @@
       <c r="X10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -2136,7 +2256,7 @@
         <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P11" t="s">
         <v>93</v>
@@ -2165,11 +2285,14 @@
       <c r="X11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Y11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>226</v>
       </c>
@@ -2210,7 +2333,7 @@
         <v>27</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>27</v>
@@ -2227,8 +2350,11 @@
       <c r="X12" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -2266,13 +2392,13 @@
         <v>239</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N13" t="s">
         <v>241</v>
       </c>
       <c r="O13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P13" t="s">
         <v>93</v>
@@ -2301,8 +2427,11 @@
       <c r="X13" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>242</v>
       </c>
@@ -2346,7 +2475,7 @@
         <v>71</v>
       </c>
       <c r="O14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P14" t="s">
         <v>93</v>
@@ -2375,8 +2504,11 @@
       <c r="X14" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>247</v>
       </c>
@@ -2414,13 +2546,13 @@
         <v>252</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N15" t="s">
         <v>71</v>
       </c>
       <c r="O15" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P15" t="s">
         <v>93</v>
@@ -2449,8 +2581,11 @@
       <c r="X15" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>254</v>
       </c>
@@ -2488,13 +2623,13 @@
         <v>256</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N16" t="s">
         <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P16" t="s">
         <v>93</v>
@@ -2523,8 +2658,11 @@
       <c r="X16" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>257</v>
       </c>
@@ -2547,28 +2685,28 @@
         <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>243</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N17" t="s">
         <v>71</v>
       </c>
       <c r="O17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P17" t="s">
         <v>93</v>
@@ -2597,8 +2735,11 @@
       <c r="X17" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>258</v>
       </c>
@@ -2621,19 +2762,19 @@
         <v>65</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M18" t="s">
         <v>27</v>
@@ -2642,7 +2783,7 @@
         <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P18" t="s">
         <v>93</v>
@@ -2671,20 +2812,563 @@
       <c r="X18" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" t="s">
+        <v>262</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>269</v>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>271</v>
+      </c>
+      <c r="O20" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" t="s">
+        <v>262</v>
+      </c>
+      <c r="P21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" t="s">
+        <v>262</v>
+      </c>
+      <c r="P22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>288</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>262</v>
+      </c>
+      <c r="P24" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S26" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S27" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z11" r:id="rId1"/>
+    <hyperlink ref="AA11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2693,10 +3377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3727,18 +4411,407 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,6 +5479,272 @@
         <v>27</v>
       </c>
       <c r="L18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
         <v>28</v>
       </c>
     </row>

--- a/ico_project.xlsx
+++ b/ico_project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="308">
   <si>
     <t>Country</t>
   </si>
@@ -946,6 +946,31 @@
   </si>
   <si>
     <t>Белиз</t>
+  </si>
+  <si>
+    <t>Остров Мэн</t>
+  </si>
+  <si>
+    <t>токены, которые предоставляют права и обязанности, схожие с "инвестициям", определенным в Акте о регулируемой деятельности 2011 года [Приложение 2, часть 1]</t>
+  </si>
+  <si>
+    <t>конвертируемая виртуальная валюта</t>
+  </si>
+  <si>
+    <t>не конвертируемая виртуальная валюта</t>
+  </si>
+  <si>
+    <t>после покупки не может быть передана другому лицу и не может быть обменен на фиатную валюту ни напрямую, ни через биржу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">включает в себя криптовалюту, может быть конвертирована в фиатную валюту, либо напрямую, либо через биржу. </t>
+  </si>
+  <si>
+    <t>инвестиция</t>
+  </si>
+  <si>
+    <t>обмен, управление, кредитование, покупка, продажа, обмен или иная торговля конвертируемыми виртуальными валютами подлежит регистрации согласно акту "Designated Business"
+посредником конвертируемых виртуальных валют, включая криптовалюты, виртуальные активы или сходные понятия</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1029,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,6 +1051,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1378,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="T3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,15 +3384,85 @@
       </c>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>288</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="S26" s="1" t="s">
-        <v>262</v>
+        <v>28</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="S27" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="S27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3377,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4800,6 +4898,62 @@
         <v>28</v>
       </c>
     </row>
+    <row r="26" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4808,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5745,6 +5899,44 @@
         <v>27</v>
       </c>
       <c r="L25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
         <v>28</v>
       </c>
     </row>

--- a/ico_project.xlsx
+++ b/ico_project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="323">
   <si>
     <t>Country</t>
   </si>
@@ -948,9 +948,6 @@
     <t>Белиз</t>
   </si>
   <si>
-    <t>Остров Мэн</t>
-  </si>
-  <si>
     <t>токены, которые предоставляют права и обязанности, схожие с "инвестициям", определенным в Акте о регулируемой деятельности 2011 года [Приложение 2, часть 1]</t>
   </si>
   <si>
@@ -971,6 +968,54 @@
   <si>
     <t>обмен, управление, кредитование, покупка, продажа, обмен или иная торговля конвертируемыми виртуальными валютами подлежит регистрации согласно акту "Designated Business"
 посредником конвертируемых виртуальных валют, включая криптовалюты, виртуальные активы или сходные понятия</t>
+  </si>
+  <si>
+    <t>крипто ценные бумаги</t>
+  </si>
+  <si>
+    <t>крипто-товар</t>
+  </si>
+  <si>
+    <t>товары или услуги, включая деривативы, которые обладают полной или существенной оборотоспособностью; обращаются на рынке без учета того, кто произвел товары или услуги; и опираются на блокчейн или децентрализованную систему</t>
+  </si>
+  <si>
+    <t>цифровой актив, который включает в себя любое цифровое представление стоимости или расчетной единицы, которая используется или может использоваться в качестве валюты (т. е. передается от одной стороны к другой в качестве средства обмена)</t>
+  </si>
+  <si>
+    <t>товар</t>
+  </si>
+  <si>
+    <t>Служба Финансового Надзора; Комиссия по торговле Товарными Фьючерсами</t>
+  </si>
+  <si>
+    <t>Необходимо зарегистрировать биржу в различных органах власти в зависимости от типа торгуемых на бирже активов</t>
+  </si>
+  <si>
+    <t>Регистрация выпуска в SEC</t>
+  </si>
+  <si>
+    <t>означает все долги и акции, которые находятся на блокчейне или другой децентрализованной системе.</t>
+  </si>
+  <si>
+    <t>Канада</t>
+  </si>
+  <si>
+    <t>токен, который имеет одну или несколько специфических функций, таких как разрешение его владельцу получать доступ или приобретать услуги или активы на основе технологии блокчейн.</t>
+  </si>
+  <si>
+    <t>токен является ценной бумагой, если подразумевает следующие факты: вложение денег,  участие в общем предприятии, расчет на прибыль, расчёт на усилия других</t>
+  </si>
+  <si>
+    <t>цифровое представление стоимости, которая может быть использована для платежных или инвестиционных целей, которое не является фиатной валютой и которые могут быть легко обменены на денежные средства или на другой виртуальной валюты, которую можно легко обменять на денежные средства</t>
+  </si>
+  <si>
+    <t>Регистрация в органе финансового надзора</t>
+  </si>
+  <si>
+    <t>Соединённые Штаты Америки</t>
+  </si>
+  <si>
+    <t>Остров Мэн</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="T3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,7 +3431,7 @@
     </row>
     <row r="26" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>64</v>
@@ -3404,22 +3449,22 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M26" t="s">
         <v>27</v>
@@ -3431,7 +3476,7 @@
         <v>262</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>27</v>
@@ -3462,7 +3507,158 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="S27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P28" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3475,10 +3671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,7 +5096,7 @@
     </row>
     <row r="26" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
@@ -4909,7 +5105,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>27</v>
@@ -4951,6 +5147,118 @@
         <v>28</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4962,10 +5270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5904,7 +6212,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
@@ -5937,6 +6245,82 @@
         <v>27</v>
       </c>
       <c r="L26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
         <v>28</v>
       </c>
     </row>
